--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_005/frequency_features.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_005/frequency_features.xlsx
@@ -535,37 +535,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>70.73992028080484</v>
+        <v>118.7138136426699</v>
       </c>
       <c r="C2" t="n">
-        <v>212.1770885888903</v>
+        <v>601.8652443255088</v>
       </c>
       <c r="D2" t="n">
-        <v>1.173484022972949e-06</v>
+        <v>2.329640167562325e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002609568362980972</v>
+        <v>0.0004649336330642492</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4261440980771377</v>
+        <v>-0.5030246340791097</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2176052497165978</v>
+        <v>0.5914821021163189</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9538401120580121</v>
+        <v>1.72329740716165</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.77351153708886</v>
+        <v>-1.05327587303807</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -581,54 +581,54 @@
         <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q2" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R2" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S2" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1204819277108434</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>47.34773200702216</v>
+        <v>388.98902368831</v>
       </c>
       <c r="C3" t="n">
-        <v>229.6496001025969</v>
+        <v>606.355485829201</v>
       </c>
       <c r="D3" t="n">
-        <v>5.251309025876971e-06</v>
+        <v>1.525978171684178e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002031979341801943</v>
+        <v>0.0005002763792821415</v>
       </c>
       <c r="F3" t="n">
-        <v>8.4</v>
+        <v>22.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04995033718270763</v>
+        <v>-1.648258574950466</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5498542757435911</v>
+        <v>0.3847190285859547</v>
       </c>
       <c r="K3" t="n">
-        <v>1.065680937924987</v>
+        <v>-0.4931781050285061</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.8998918770421594</v>
+        <v>-2.218699278712759</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -644,54 +644,54 @@
         <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q3" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R3" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S3" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.99653462987559</v>
+        <v>163.6207953722323</v>
       </c>
       <c r="C4" t="n">
-        <v>233.0521373124401</v>
+        <v>369.8192254563597</v>
       </c>
       <c r="D4" t="n">
-        <v>6.7052847113146e-08</v>
+        <v>1.041574547538143e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001350986917286352</v>
+        <v>0.0002994665491145176</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1206373819465168</v>
+        <v>-0.693308454967086</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5046121995998397</v>
+        <v>0.3048961830865556</v>
       </c>
       <c r="K4" t="n">
-        <v>1.387859483157284</v>
+        <v>0.4561154598129855</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.6035714348177629</v>
+        <v>-1.117998120030279</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -707,54 +707,54 @@
         <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R4" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S4" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B5" t="n">
-        <v>75.85072779091161</v>
+        <v>114.44692456593</v>
       </c>
       <c r="C5" t="n">
-        <v>294.8030404294387</v>
+        <v>777.0243033181742</v>
       </c>
       <c r="D5" t="n">
-        <v>9.530559609647806e-07</v>
+        <v>2.855251467113851e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0008886184162376986</v>
+        <v>0.001998988636097564</v>
       </c>
       <c r="F5" t="n">
-        <v>15.1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4569320951259734</v>
+        <v>-0.3985221105127028</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5669713941325192</v>
+        <v>0.9306581700448444</v>
       </c>
       <c r="K5" t="n">
-        <v>1.707234418544953</v>
+        <v>2.370850803843852</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.783273705174238</v>
+        <v>-1.680791940739318</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q5" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R5" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S5" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -787,37 +787,37 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>86.92493386406349</v>
+        <v>229.7721026264826</v>
       </c>
       <c r="C6" t="n">
-        <v>204.244009282302</v>
+        <v>675.2777182803544</v>
       </c>
       <c r="D6" t="n">
-        <v>5.383664769742832e-07</v>
+        <v>1.722749492799676e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001321354487393516</v>
+        <v>0.0001025900206568323</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5236441799039969</v>
+        <v>0.9736106043495025</v>
       </c>
       <c r="J6" t="n">
-        <v>0.408746366708742</v>
+        <v>0.4647209554303458</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2475781932952513</v>
+        <v>1.985107879579697</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.165015905216995</v>
+        <v>-0.3266928825679736</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         <v>5</v>
       </c>
       <c r="P6" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q6" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R6" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S6" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -850,37 +850,37 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>360.3632082205219</v>
+        <v>97.19082963331502</v>
       </c>
       <c r="C7" t="n">
-        <v>774.0888705871372</v>
+        <v>525.9225018970293</v>
       </c>
       <c r="D7" t="n">
-        <v>2.03204693846123e-07</v>
+        <v>1.978132590716116e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001497508426248642</v>
+        <v>0.0001109435444894449</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.170862700123626</v>
+        <v>-0.4118255492937077</v>
       </c>
       <c r="J7" t="n">
-        <v>1.282288586030335</v>
+        <v>0.5073546224066675</v>
       </c>
       <c r="K7" t="n">
-        <v>4.86534373758582</v>
+        <v>1.126696094330454</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.1626968195125462</v>
+        <v>-1.073621768817772</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -896,16 +896,16 @@
         <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q7" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R7" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S7" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -913,37 +913,37 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>160.6875803749353</v>
+        <v>157.0410360682563</v>
       </c>
       <c r="C8" t="n">
-        <v>597.7949131888903</v>
+        <v>786.1455991735354</v>
       </c>
       <c r="D8" t="n">
-        <v>9.630988847966941e-08</v>
+        <v>4.15516485437424e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>8.87361876454703e-05</v>
+        <v>5.287626886011825e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9679974721381644</v>
+        <v>-0.6654281189332897</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8899411310724682</v>
+        <v>0.8035541435555152</v>
       </c>
       <c r="K8" t="n">
-        <v>3.28170338212596</v>
+        <v>2.132181931427554</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.3930789533313681</v>
+        <v>-1.284828354834989</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
         <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q8" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R8" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S8" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
@@ -976,16 +976,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>106.5770831109379</v>
+        <v>155.9698412664623</v>
       </c>
       <c r="C9" t="n">
-        <v>283.6718969622303</v>
+        <v>497.1640984782573</v>
       </c>
       <c r="D9" t="n">
-        <v>8.012035491910774e-07</v>
+        <v>9.294172600774881e-08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000202603446408604</v>
+        <v>0.0002256458626618683</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -997,16 +997,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6420306211502281</v>
+        <v>-0.6608891579087386</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4220397378103275</v>
+        <v>0.6016951880881166</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4461700580805442</v>
+        <v>0.6366280847133021</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.180634135550227</v>
+        <v>-1.831819441586976</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1022,16 +1022,16 @@
         <v>5</v>
       </c>
       <c r="P9" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q9" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R9" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S9" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
@@ -1039,37 +1039,37 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>62.60016426009601</v>
+        <v>167.1095278117359</v>
       </c>
       <c r="C10" t="n">
-        <v>165.719892253923</v>
+        <v>422.0664289367463</v>
       </c>
       <c r="D10" t="n">
-        <v>2.444240792078386e-07</v>
+        <v>1.170310794846939e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>6.06756288370369e-05</v>
+        <v>7.690078086130262e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>13.9</v>
+        <v>20.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3771094232535903</v>
+        <v>-0.7080912195412539</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4365860304925728</v>
+        <v>0.3913962043282234</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3588599305185675</v>
+        <v>0.1081369467730106</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.05997412355168</v>
+        <v>-1.374169181783953</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1085,54 +1085,54 @@
         <v>5</v>
       </c>
       <c r="P10" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q10" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R10" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S10" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>64.92411209002417</v>
+        <v>137.6844440959694</v>
       </c>
       <c r="C11" t="n">
-        <v>208.5882234130372</v>
+        <v>721.3083694229708</v>
       </c>
       <c r="D11" t="n">
-        <v>1.684086073010491e-06</v>
+        <v>1.597118869518607e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002561024988083343</v>
+        <v>0.0003306132651085924</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1072057401903971</v>
+        <v>-0.5834086614235989</v>
       </c>
       <c r="J11" t="n">
-        <v>0.653520650372615</v>
+        <v>1.085507493577788</v>
       </c>
       <c r="K11" t="n">
-        <v>1.264325657917045</v>
+        <v>1.447653355430835</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.258089551070593</v>
+        <v>-2.848328096243027</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,16 +1148,16 @@
         <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q11" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R11" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S11" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -1165,37 +1165,37 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>77.16282836761262</v>
+        <v>113.3181027941573</v>
       </c>
       <c r="C12" t="n">
-        <v>371.4781950564197</v>
+        <v>545.7159345278354</v>
       </c>
       <c r="D12" t="n">
-        <v>1.581923570809486e-06</v>
+        <v>1.996418901503162e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0007840719815466337</v>
+        <v>0.0009957726393393772</v>
       </c>
       <c r="F12" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4648363154675458</v>
+        <v>-0.4801614525176158</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6652648843510983</v>
+        <v>0.5835800598934593</v>
       </c>
       <c r="K12" t="n">
-        <v>1.329035074259802</v>
+        <v>0.8532145868275486</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.916512684143209</v>
+        <v>-1.75085781809621</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
         <v>5</v>
       </c>
       <c r="P12" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q12" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R12" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S12" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1228,37 +1228,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>96.78980494206127</v>
+        <v>371.8048293737604</v>
       </c>
       <c r="C13" t="n">
-        <v>149.5949598276812</v>
+        <v>1020.422802952387</v>
       </c>
       <c r="D13" t="n">
-        <v>1.017733100710941e-08</v>
+        <v>6.116148837515563e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>2.182253298090789e-05</v>
+        <v>8.577167533819829e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5830711141088029</v>
+        <v>1.575444192261696</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1661906308686853</v>
+        <v>0.9327943936567104</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2904106104342181</v>
+        <v>2.754373872004636</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.8762288330274438</v>
+        <v>-0.5181215247765916</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1274,54 +1274,54 @@
         <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q13" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R13" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S13" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>73.29127763541376</v>
+        <v>312.2187915177892</v>
       </c>
       <c r="C14" t="n">
-        <v>421.6284939406112</v>
+        <v>955.4289104170815</v>
       </c>
       <c r="D14" t="n">
-        <v>9.6284458912791e-08</v>
+        <v>6.285872925019772e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>7.889798939122405e-05</v>
+        <v>0.0001738214537124591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1442405474297503</v>
+        <v>1.322960981007581</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8532122301380038</v>
+        <v>0.7413476793983839</v>
       </c>
       <c r="K14" t="n">
-        <v>2.035308430403484</v>
+        <v>2.392300310515828</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.025935208804788</v>
+        <v>-1.107232078173455</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1337,54 +1337,54 @@
         <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q14" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R14" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S14" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>116.2135775631378</v>
+        <v>221.1335319779845</v>
       </c>
       <c r="C15" t="n">
-        <v>456.4339580129303</v>
+        <v>800.3984014159349</v>
       </c>
       <c r="D15" t="n">
-        <v>9.370719104616887e-08</v>
+        <v>1.357081657427693e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001449048762654436</v>
+        <v>8.708008008337563e-05</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.201153712026248</v>
+        <v>-0.9370064914321377</v>
       </c>
       <c r="J15" t="n">
-        <v>1.136815330533914</v>
+        <v>0.7640584991005395</v>
       </c>
       <c r="K15" t="n">
-        <v>2.430718300516312</v>
+        <v>1.547865076081845</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.9659345848418777</v>
+        <v>-1.703850803161063</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1400,16 +1400,16 @@
         <v>5</v>
       </c>
       <c r="P15" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q15" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R15" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S15" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16">
@@ -1417,37 +1417,37 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>101.2401973909484</v>
+        <v>282.2126377225166</v>
       </c>
       <c r="C16" t="n">
-        <v>431.5519225539207</v>
+        <v>463.8443097953689</v>
       </c>
       <c r="D16" t="n">
-        <v>2.514791108546302e-06</v>
+        <v>4.795816042367586e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>4.281988766524347e-05</v>
+        <v>0.0001505890997915335</v>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6098807071743877</v>
+        <v>-1.195816261536087</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6878621056955928</v>
+        <v>0.2953236146508512</v>
       </c>
       <c r="K16" t="n">
-        <v>2.04483398003042</v>
+        <v>0.06812666033179421</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3735877311875191</v>
+        <v>-1.563207366019558</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1463,16 +1463,16 @@
         <v>5</v>
       </c>
       <c r="P16" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q16" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R16" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S16" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17">
@@ -1480,37 +1480,37 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>91.67062692212019</v>
+        <v>241.2655932418675</v>
       </c>
       <c r="C17" t="n">
-        <v>179.8718971278416</v>
+        <v>327.7041045496305</v>
       </c>
       <c r="D17" t="n">
-        <v>1.321135632363234e-07</v>
+        <v>3.705383450751864e-08</v>
       </c>
       <c r="E17" t="n">
-        <v>3.947306195212861e-05</v>
+        <v>2.631796651243229e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5522326923019287</v>
+        <v>-1.022311835770625</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2896899068991366</v>
+        <v>0.126978767973035</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2120685037883627</v>
+        <v>-0.6999752684258627</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.081227772049798</v>
+        <v>-1.215624684722288</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1526,54 +1526,54 @@
         <v>5</v>
       </c>
       <c r="P17" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q17" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R17" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S17" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.06024096385542168</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B18" t="n">
-        <v>91.46945699070181</v>
+        <v>101.5306565830459</v>
       </c>
       <c r="C18" t="n">
-        <v>401.5398729484974</v>
+        <v>756.2927456856764</v>
       </c>
       <c r="D18" t="n">
-        <v>6.074341982657148e-07</v>
+        <v>3.183755913366288e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001540784486334463</v>
+        <v>0.0001376744068235734</v>
       </c>
       <c r="F18" t="n">
-        <v>15.1</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08209393976961182</v>
+        <v>0.07657552137438306</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9506545069346376</v>
+        <v>0.8733322204372399</v>
       </c>
       <c r="K18" t="n">
-        <v>2.563889574139559</v>
+        <v>2.298324098825523</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.481311315764928</v>
+        <v>-1.499371571412562</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1589,16 +1589,16 @@
         <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q18" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R18" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S18" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
@@ -1606,37 +1606,37 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>74.30004772814124</v>
+        <v>251.1622384740343</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2742683822361</v>
+        <v>397.7352907512647</v>
       </c>
       <c r="D19" t="n">
-        <v>1.765935430982585e-07</v>
+        <v>1.493352208960789e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>4.691235141143843e-05</v>
+        <v>0.0001345453575170904</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.4475906489647064</v>
+        <v>-1.064246773195061</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2007343850292078</v>
+        <v>0.1831256895420362</v>
       </c>
       <c r="K19" t="n">
-        <v>0.006442199885379703</v>
+        <v>-0.4671455728515621</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.8028688675316095</v>
+        <v>-1.370190323275094</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1652,16 +1652,16 @@
         <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q19" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R19" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S19" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20">
@@ -1669,37 +1669,37 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>333.421546361918</v>
+        <v>151.8721970406799</v>
       </c>
       <c r="C20" t="n">
-        <v>805.1859259131829</v>
+        <v>659.1054400383124</v>
       </c>
       <c r="D20" t="n">
-        <v>4.393929959488327e-07</v>
+        <v>1.576666571656621e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0001230505682509533</v>
+        <v>3.830819104130917e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.00856353230071</v>
+        <v>-0.6435262586469487</v>
       </c>
       <c r="J20" t="n">
-        <v>1.147215361471499</v>
+        <v>0.6800431032778878</v>
       </c>
       <c r="K20" t="n">
-        <v>4.030853364815893</v>
+        <v>1.665165882289597</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.5150661583347512</v>
+        <v>-1.246200935930744</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1715,16 +1715,16 @@
         <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q20" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R20" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S20" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -1732,37 +1732,37 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>144.8357166273141</v>
+        <v>260.3192298823407</v>
       </c>
       <c r="C21" t="n">
-        <v>428.6137950528085</v>
+        <v>515.620742525219</v>
       </c>
       <c r="D21" t="n">
-        <v>1.204476176428653e-07</v>
+        <v>1.996698255308717e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>6.1809970995367e-05</v>
+        <v>3.870291336385068e-05</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8725043170320125</v>
+        <v>-1.103047584247206</v>
       </c>
       <c r="J21" t="n">
-        <v>1.037033532422174</v>
+        <v>0.3643949027168114</v>
       </c>
       <c r="K21" t="n">
-        <v>2.670752180285484</v>
+        <v>0.2323546025060242</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.7005737997065746</v>
+        <v>-1.552524267262007</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1778,54 +1778,54 @@
         <v>5</v>
       </c>
       <c r="P21" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q21" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R21" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S21" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>64.88872553083517</v>
+        <v>257.911656639443</v>
       </c>
       <c r="C22" t="n">
-        <v>254.7812632404844</v>
+        <v>447.8575513481723</v>
       </c>
       <c r="D22" t="n">
-        <v>8.007261392766437e-08</v>
+        <v>6.683263709339946e-08</v>
       </c>
       <c r="E22" t="n">
-        <v>4.614823205199346e-05</v>
+        <v>3.495018548829484e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2040262100975156</v>
+        <v>-1.092846002709504</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7337846546823978</v>
+        <v>0.2409907076667598</v>
       </c>
       <c r="K22" t="n">
-        <v>1.984204316086849</v>
+        <v>-0.2262824183602823</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.668937972113648</v>
+        <v>-1.335884540222394</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1841,54 +1841,54 @@
         <v>5</v>
       </c>
       <c r="P22" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q22" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R22" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S22" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1204819277108434</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>55.64071004681846</v>
+        <v>443.7062305069373</v>
       </c>
       <c r="C23" t="n">
-        <v>305.8830858751753</v>
+        <v>892.9189375592148</v>
       </c>
       <c r="D23" t="n">
-        <v>2.474036368529573e-07</v>
+        <v>1.656877957061794e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0001950081058027245</v>
+        <v>0.0003098759094738643</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07192971142090934</v>
+        <v>-1.880111146215836</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7377696767350059</v>
+        <v>0.5422876814742116</v>
       </c>
       <c r="K23" t="n">
-        <v>1.793793612569709</v>
+        <v>-0.02959055831514827</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.886370420252317</v>
+        <v>-2.707449140090523</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1904,54 +1904,54 @@
         <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q23" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R23" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S23" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B24" t="n">
-        <v>39.96370323469201</v>
+        <v>104.5102966054741</v>
       </c>
       <c r="C24" t="n">
-        <v>262.1568292315171</v>
+        <v>422.285232564137</v>
       </c>
       <c r="D24" t="n">
-        <v>1.299984673724815e-06</v>
+        <v>5.617527585315645e-08</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002071668906754598</v>
+        <v>0.0001748802674696468</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2407452002089879</v>
+        <v>-0.263288400116973</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4657632881041349</v>
+        <v>0.7117026084849515</v>
       </c>
       <c r="K24" t="n">
-        <v>1.005689148307218</v>
+        <v>1.311662869741142</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.8954532889709019</v>
+        <v>-1.317712053345801</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1967,54 +1967,54 @@
         <v>5</v>
       </c>
       <c r="P24" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q24" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R24" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S24" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B25" t="n">
-        <v>163.4887116956897</v>
+        <v>196.7551793519181</v>
       </c>
       <c r="C25" t="n">
-        <v>240.0243212556474</v>
+        <v>590.2639294798657</v>
       </c>
       <c r="D25" t="n">
-        <v>4.28984408441644e-08</v>
+        <v>2.40047535496696e-08</v>
       </c>
       <c r="E25" t="n">
-        <v>1.491401691664877e-05</v>
+        <v>6.847923941821112e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.9848717572029501</v>
+        <v>0.2645250749395723</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1456911721670593</v>
+        <v>1.240352071787468</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.6356692354680762</v>
+        <v>2.135427951513662</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.239769199291862</v>
+        <v>-1.414586525203112</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2030,16 +2030,16 @@
         <v>5</v>
       </c>
       <c r="P25" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q25" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R25" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S25" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -2047,37 +2047,37 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>96.45218450348659</v>
+        <v>56.77212805957059</v>
       </c>
       <c r="C26" t="n">
-        <v>260.6825217496221</v>
+        <v>305.0726591591974</v>
       </c>
       <c r="D26" t="n">
-        <v>4.203595950576714e-08</v>
+        <v>2.228191446498458e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0001234818559679433</v>
+        <v>0.0004214400103969396</v>
       </c>
       <c r="F26" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5810372560450999</v>
+        <v>-0.2405598646591975</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2793011450040514</v>
+        <v>0.3099119609246102</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08074738926311165</v>
+        <v>0.4577193549412925</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.144277875355252</v>
+        <v>-1.070372557904462</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2093,54 +2093,54 @@
         <v>5</v>
       </c>
       <c r="P26" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q26" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R26" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S26" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>103.2487229080577</v>
+        <v>399.5197456948385</v>
       </c>
       <c r="C27" t="n">
-        <v>483.4797125965731</v>
+        <v>880.143725826005</v>
       </c>
       <c r="D27" t="n">
-        <v>1.189122880533708e-06</v>
+        <v>1.594166113600892e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0002696027545115048</v>
+        <v>0.0003974073194226954</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04072383365006491</v>
+        <v>1.69288027836796</v>
       </c>
       <c r="J27" t="n">
-        <v>1.205262843418106</v>
+        <v>0.9419359300377236</v>
       </c>
       <c r="K27" t="n">
-        <v>2.712325258068144</v>
+        <v>3.314017167673192</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.048008294940133</v>
+        <v>0.006909511055461763</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2156,54 +2156,54 @@
         <v>5</v>
       </c>
       <c r="P27" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q27" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R27" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S27" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>41.95553673458818</v>
+        <v>186.967181893863</v>
       </c>
       <c r="C28" t="n">
-        <v>280.1593542722413</v>
+        <v>413.596561306864</v>
       </c>
       <c r="D28" t="n">
-        <v>1.047120360055054e-06</v>
+        <v>2.89952538418575e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0005482946122674757</v>
+        <v>0.0001645926700650829</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2259070334957321</v>
+        <v>-0.7922338215841651</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4685326436704394</v>
+        <v>0.3584292661689897</v>
       </c>
       <c r="K28" t="n">
-        <v>1.500310486507897</v>
+        <v>0.1677852331030622</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.5019841742404719</v>
+        <v>-1.380405762483212</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2219,54 +2219,54 @@
         <v>5</v>
       </c>
       <c r="P28" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q28" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R28" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S28" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>110.9722604576129</v>
+        <v>292.2766236041413</v>
       </c>
       <c r="C29" t="n">
-        <v>395.5011186520099</v>
+        <v>610.351550896505</v>
       </c>
       <c r="D29" t="n">
-        <v>4.832556763033117e-07</v>
+        <v>1.905428460189281e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0004845976061645825</v>
+        <v>0.0005082491785999732</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05031235836266185</v>
+        <v>-1.238460269509073</v>
       </c>
       <c r="J29" t="n">
-        <v>1.204639524770067</v>
+        <v>0.4264161785931486</v>
       </c>
       <c r="K29" t="n">
-        <v>3.064699781472611</v>
+        <v>0.02262061551989801</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.132080189105951</v>
+        <v>-2.160600080746536</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>5</v>
       </c>
       <c r="P29" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q29" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R29" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S29" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -2299,37 +2299,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>116.5685714485117</v>
+        <v>259.4280624521025</v>
       </c>
       <c r="C30" t="n">
-        <v>244.7880838973421</v>
+        <v>775.4317069856367</v>
       </c>
       <c r="D30" t="n">
-        <v>3.263629401478046e-07</v>
+        <v>5.607830207019818e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0002608831015093088</v>
+        <v>0.0003528783696930374</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7022203099307935</v>
+        <v>1.099271451068231</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2391676863133637</v>
+        <v>0.7077150090552594</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.04251119565164469</v>
+        <v>2.573768680532423</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.185638674891335</v>
+        <v>-0.8175172020424868</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2345,54 +2345,54 @@
         <v>5</v>
       </c>
       <c r="P30" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q30" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R30" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S30" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>77.2577308453339</v>
+        <v>299.5015925920571</v>
       </c>
       <c r="C31" t="n">
-        <v>297.882142288872</v>
+        <v>812.7307796427481</v>
       </c>
       <c r="D31" t="n">
-        <v>1.851034318389399e-08</v>
+        <v>8.744386762338906e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001296675010135922</v>
+        <v>0.0002516183758297137</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.31927001783397</v>
+        <v>1.269074544881598</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8366176595721913</v>
+        <v>0.9017863501545299</v>
       </c>
       <c r="K31" t="n">
-        <v>1.5811834400247</v>
+        <v>2.999105391508128</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.454213186120008</v>
+        <v>-0.7806614626894511</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2408,54 +2408,54 @@
         <v>5</v>
       </c>
       <c r="P31" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q31" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R31" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S31" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>136.449372949501</v>
+        <v>233.2506723453343</v>
       </c>
       <c r="C32" t="n">
-        <v>624.8509026852843</v>
+        <v>946.157979104688</v>
       </c>
       <c r="D32" t="n">
-        <v>7.528460778898005e-07</v>
+        <v>7.577248525740866e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>0.000352535554357553</v>
+        <v>0.000941673121203577</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4153181591484693</v>
+        <v>0.9883503065480266</v>
       </c>
       <c r="J32" t="n">
-        <v>1.48876267833979</v>
+        <v>1.466233543420896</v>
       </c>
       <c r="K32" t="n">
-        <v>4.176935688063413</v>
+        <v>3.821690183707733</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.8459786426638495</v>
+        <v>-0.7147415598310894</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2471,16 +2471,16 @@
         <v>5</v>
       </c>
       <c r="P32" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q32" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R32" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S32" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
@@ -2488,37 +2488,37 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>72.08125943130486</v>
+        <v>639.7964585894899</v>
       </c>
       <c r="C33" t="n">
-        <v>254.4725429210167</v>
+        <v>1375.407048591812</v>
       </c>
       <c r="D33" t="n">
-        <v>5.517639992710812e-07</v>
+        <v>1.327816947665687e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005380024669681828</v>
+        <v>0.0005884687468926565</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.434224454405451</v>
+        <v>2.711001943175805</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4950574756869107</v>
+        <v>0.8666491023016124</v>
       </c>
       <c r="K33" t="n">
-        <v>1.166268266517054</v>
+        <v>3.970458751451502</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.15116936110267</v>
+        <v>-0.3304897499583715</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2534,16 +2534,16 @@
         <v>5</v>
       </c>
       <c r="P33" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q33" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R33" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S33" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -2551,37 +2551,37 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>136.0676111406379</v>
+        <v>435.2256510715075</v>
       </c>
       <c r="C34" t="n">
-        <v>221.3322732411805</v>
+        <v>927.7613737299071</v>
       </c>
       <c r="D34" t="n">
-        <v>1.910576454524024e-07</v>
+        <v>2.576165905242137e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>8.209311745567251e-05</v>
+        <v>0.0002176156498947957</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.8196844044616742</v>
+        <v>1.844176487591134</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2132969107337382</v>
+        <v>0.7303273432211304</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.3211946786930552</v>
+        <v>2.639462877433582</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.147650574808023</v>
+        <v>-0.7138874558198883</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2597,16 +2597,16 @@
         <v>5</v>
       </c>
       <c r="P34" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q34" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R34" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S34" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -2614,37 +2614,37 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>85.39732308216844</v>
+        <v>479.0378736006583</v>
       </c>
       <c r="C35" t="n">
-        <v>197.020243572031</v>
+        <v>1014.973093928411</v>
       </c>
       <c r="D35" t="n">
-        <v>5.535371745440312e-07</v>
+        <v>8.544520836978471e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0001357861563707971</v>
+        <v>0.0002143849794323865</v>
       </c>
       <c r="F35" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.5144417053142679</v>
+        <v>2.029821498307874</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2734437683667453</v>
+        <v>0.7406800815735949</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1045670034858726</v>
+        <v>3.46410683537942</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.028785396468806</v>
+        <v>-0.6009191036942778</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2660,16 +2660,16 @@
         <v>5</v>
       </c>
       <c r="P35" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q35" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R35" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S35" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36">
@@ -2677,37 +2677,37 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>75.56921256090679</v>
+        <v>299.255181153753</v>
       </c>
       <c r="C36" t="n">
-        <v>260.6564965360405</v>
+        <v>664.9461382917247</v>
       </c>
       <c r="D36" t="n">
-        <v>7.709020916074869e-07</v>
+        <v>6.214993242197125e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001801712592656772</v>
+        <v>0.0002660138530164096</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4552362202464265</v>
+        <v>-1.268030428617598</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5631014588266463</v>
+        <v>0.3749727329699161</v>
       </c>
       <c r="K36" t="n">
-        <v>1.990892357086083</v>
+        <v>0.06410943905739432</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.2787083623387029</v>
+        <v>-1.90828141269923</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2723,54 +2723,54 @@
         <v>5</v>
       </c>
       <c r="P36" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q36" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R36" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S36" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B37" t="n">
-        <v>64.71163993546756</v>
+        <v>150.3591186076736</v>
       </c>
       <c r="C37" t="n">
-        <v>201.9317700858652</v>
+        <v>541.7462466784441</v>
       </c>
       <c r="D37" t="n">
-        <v>4.221544974432362e-07</v>
+        <v>4.65343757159907e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000242995490657428</v>
+        <v>0.0002624326909074586</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.3898291562377562</v>
+        <v>0.06098605407680463</v>
       </c>
       <c r="J37" t="n">
-        <v>0.451918565094545</v>
+        <v>1.031400434655683</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5658415616426438</v>
+        <v>2.390426219027202</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.0131419090621</v>
+        <v>-1.420693095364198</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2786,54 +2786,54 @@
         <v>5</v>
       </c>
       <c r="P37" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q37" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R37" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S37" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>26.53948237579799</v>
+        <v>198.4368792357527</v>
       </c>
       <c r="C38" t="n">
-        <v>242.0482962194833</v>
+        <v>334.410512889528</v>
       </c>
       <c r="D38" t="n">
-        <v>4.472168551721139e-07</v>
+        <v>2.637713558533794e-08</v>
       </c>
       <c r="E38" t="n">
-        <v>8.479055796053355e-05</v>
+        <v>0.0001049019952217192</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.04527115876334283</v>
+        <v>-0.8408342340497998</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4149090382004395</v>
+        <v>0.1879975717185857</v>
       </c>
       <c r="K38" t="n">
-        <v>1.117258263299612</v>
+        <v>-0.4553212760722273</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.6540780237071647</v>
+        <v>-1.22345015546029</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2849,54 +2849,54 @@
         <v>5</v>
       </c>
       <c r="P38" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q38" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R38" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S38" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.06024096385542168</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B39" t="n">
-        <v>85.46280556379762</v>
+        <v>217.2405394364775</v>
       </c>
       <c r="C39" t="n">
-        <v>391.5503220577762</v>
+        <v>960.3664179101906</v>
       </c>
       <c r="D39" t="n">
-        <v>6.54545565297329e-06</v>
+        <v>5.552918626467304e-08</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0008712061523859899</v>
+        <v>0.0008358064006072423</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01157871250240967</v>
+        <v>0.883241495354027</v>
       </c>
       <c r="J39" t="n">
-        <v>1.022879433731453</v>
+        <v>1.607586681088536</v>
       </c>
       <c r="K39" t="n">
-        <v>2.626035360156387</v>
+        <v>5.003257096949595</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.584881391237272</v>
+        <v>-1.64070376973217</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2912,16 +2912,16 @@
         <v>5</v>
       </c>
       <c r="P39" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q39" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R39" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S39" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -2929,37 +2929,37 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>88.60441527627363</v>
+        <v>522.8826674070878</v>
       </c>
       <c r="C40" t="n">
-        <v>384.4383357706487</v>
+        <v>889.1100652458642</v>
       </c>
       <c r="D40" t="n">
-        <v>8.457615916160576e-08</v>
+        <v>1.264531524814742e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0001643173375433632</v>
+        <v>0.0002430499430189105</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.5337615378088771</v>
+        <v>2.215604522911389</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7347177915377546</v>
+        <v>0.4690882274244091</v>
       </c>
       <c r="K40" t="n">
-        <v>1.2043363362344</v>
+        <v>3.111344368334838</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.38332370070857</v>
+        <v>0.9722466631559198</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2975,54 +2975,54 @@
         <v>5</v>
       </c>
       <c r="P40" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q40" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R40" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S40" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>54.33510867002229</v>
+        <v>243.2524730492582</v>
       </c>
       <c r="C41" t="n">
-        <v>381.322217081466</v>
+        <v>895.278186313268</v>
       </c>
       <c r="D41" t="n">
-        <v>2.089131092328834e-06</v>
+        <v>5.760581740067902e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0005090695987216027</v>
+        <v>0.0002811529198704212</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.05921551597017136</v>
+        <v>-1.030730818005331</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7548451508612577</v>
+        <v>0.838050953268516</v>
       </c>
       <c r="K41" t="n">
-        <v>2.375088542053138</v>
+        <v>1.490460467241296</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.6411295673005052</v>
+        <v>-2.090217376474387</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3038,54 +3038,54 @@
         <v>5</v>
       </c>
       <c r="P41" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q41" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R41" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S41" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>48.43302649046765</v>
+        <v>162.1047318459786</v>
       </c>
       <c r="C42" t="n">
-        <v>246.4047129919038</v>
+        <v>348.8057607185294</v>
       </c>
       <c r="D42" t="n">
-        <v>1.009343559492937e-06</v>
+        <v>9.130353786015591e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0002565511647406963</v>
+        <v>0.0001862770765597655</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.2732120346544587</v>
+        <v>-0.6868844569744853</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4974798780724785</v>
+        <v>0.26283681380746</v>
       </c>
       <c r="K42" t="n">
-        <v>0.835117303945396</v>
+        <v>0.03799697117142532</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.141976555009216</v>
+        <v>-1.446110347528163</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3101,16 +3101,16 @@
         <v>5</v>
       </c>
       <c r="P42" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q42" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R42" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S42" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43">
@@ -3118,37 +3118,37 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>371.3214860880939</v>
+        <v>227.4747770317389</v>
       </c>
       <c r="C43" t="n">
-        <v>750.5468092616197</v>
+        <v>713.0145595999128</v>
       </c>
       <c r="D43" t="n">
-        <v>1.372175625991484e-06</v>
+        <v>1.818206173279018e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0006430288331408535</v>
+        <v>0.000810388341782236</v>
       </c>
       <c r="F43" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.236876422217433</v>
+        <v>-0.9638761738633007</v>
       </c>
       <c r="J43" t="n">
-        <v>1.148772373356701</v>
+        <v>0.6915625333435091</v>
       </c>
       <c r="K43" t="n">
-        <v>4.165980305127922</v>
+        <v>1.387475980002899</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.3393666255430701</v>
+        <v>-1.634856764454717</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3164,16 +3164,16 @@
         <v>5</v>
       </c>
       <c r="P43" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q43" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R43" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S43" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44">
@@ -3181,37 +3181,37 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>283.9227581751563</v>
+        <v>153.6175222002157</v>
       </c>
       <c r="C44" t="n">
-        <v>801.2043500580221</v>
+        <v>476.945357978199</v>
       </c>
       <c r="D44" t="n">
-        <v>1.032784671979116e-07</v>
+        <v>1.095274320379976e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0003223460969858868</v>
+        <v>0.0009189784994814785</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.710378061296123</v>
+        <v>-0.6509217042382018</v>
       </c>
       <c r="J44" t="n">
-        <v>1.762174863662898</v>
+        <v>0.3951732627145642</v>
       </c>
       <c r="K44" t="n">
-        <v>5.131803487045389</v>
+        <v>0.4857039419636345</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.8646747606836647</v>
+        <v>-1.392908267135</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3227,16 +3227,16 @@
         <v>5</v>
       </c>
       <c r="P44" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q44" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R44" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S44" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45">
@@ -3244,37 +3244,37 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>65.41874851769492</v>
+        <v>147.9026064710027</v>
       </c>
       <c r="C45" t="n">
-        <v>227.5971447184283</v>
+        <v>258.3789572980186</v>
       </c>
       <c r="D45" t="n">
-        <v>7.535844263211103e-07</v>
+        <v>3.345770351109311e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0004943259657808724</v>
+        <v>0.0003775355089199709</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.394088846492138</v>
+        <v>-0.6267059596228928</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3100399648100825</v>
+        <v>0.1511932510380914</v>
       </c>
       <c r="K45" t="n">
-        <v>0.486744757302724</v>
+        <v>-0.2675434425778571</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.8649168982438139</v>
+        <v>-0.9867258543687483</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3290,16 +3290,16 @@
         <v>5</v>
       </c>
       <c r="P45" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q45" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R45" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S45" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46">
@@ -3307,37 +3307,37 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>183.1503717078606</v>
+        <v>261.993041450894</v>
       </c>
       <c r="C46" t="n">
-        <v>452.5103529912031</v>
+        <v>479.4757602947822</v>
       </c>
       <c r="D46" t="n">
-        <v>5.198597343611324e-07</v>
+        <v>2.987274351039319e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0006731168310881613</v>
+        <v>0.0002697355772951837</v>
       </c>
       <c r="F46" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.103315492216028</v>
+        <v>-1.110140006147856</v>
       </c>
       <c r="J46" t="n">
-        <v>0.994555655723902</v>
+        <v>0.2603734221546289</v>
       </c>
       <c r="K46" t="n">
-        <v>2.619620534930003</v>
+        <v>-0.2423329379938219</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.7874513495840973</v>
+        <v>-1.587988985782948</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3353,16 +3353,16 @@
         <v>5</v>
       </c>
       <c r="P46" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q46" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R46" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S46" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47">
@@ -3370,37 +3370,37 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>155.7385184784848</v>
+        <v>372.2230116169584</v>
       </c>
       <c r="C47" t="n">
-        <v>283.2664459654031</v>
+        <v>1146.993419220322</v>
       </c>
       <c r="D47" t="n">
-        <v>1.435495429904798e-06</v>
+        <v>2.113128644271925e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.000552064263775572</v>
+        <v>0.001316159815498738</v>
       </c>
       <c r="F47" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.9381838462559323</v>
+        <v>1.577216150919316</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2437917514695613</v>
+        <v>1.126827949444458</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.3552698260186332</v>
+        <v>3.029495163679468</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.622539285225713</v>
+        <v>-1.332987613038151</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3416,54 +3416,54 @@
         <v>5</v>
       </c>
       <c r="P47" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q47" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R47" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S47" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>57.955843529856</v>
+        <v>605.0280880188269</v>
       </c>
       <c r="C48" t="n">
-        <v>421.0808836320255</v>
+        <v>1144.20214828442</v>
       </c>
       <c r="D48" t="n">
-        <v>2.336929015643891e-06</v>
+        <v>5.583706143941124e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002656592872431298</v>
+        <v>0.003316130175781508</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.06246849395628886</v>
+        <v>2.563678339062826</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9369438618376238</v>
+        <v>0.9221522642780794</v>
       </c>
       <c r="K48" t="n">
-        <v>3.048793529044868</v>
+        <v>4.179499388278803</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.408561376229688</v>
+        <v>0.7793200752276039</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3479,16 +3479,16 @@
         <v>5</v>
       </c>
       <c r="P48" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q48" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R48" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S48" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49">
@@ -3496,37 +3496,37 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>55.98085089162528</v>
+        <v>559.0000942227052</v>
       </c>
       <c r="C49" t="n">
-        <v>215.9788315476537</v>
+        <v>1401.434491276347</v>
       </c>
       <c r="D49" t="n">
-        <v>1.267167098207928e-06</v>
+        <v>2.223992447688069e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0009418723062305911</v>
+        <v>0.001908464452749986</v>
       </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>1.4</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.337234041515815</v>
+        <v>2.368644467045361</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3147863685491901</v>
+        <v>1.09554799084188</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4085222503065393</v>
+        <v>3.884334166022422</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.9839809813350802</v>
+        <v>-1.136361585882585</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3542,54 +3542,54 @@
         <v>5</v>
       </c>
       <c r="P49" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q49" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R49" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S49" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>30.41266466884044</v>
+        <v>232.4744991266855</v>
       </c>
       <c r="C50" t="n">
-        <v>229.8798712372049</v>
+        <v>487.2940076206722</v>
       </c>
       <c r="D50" t="n">
-        <v>2.427593604068868e-08</v>
+        <v>1.223932395218678e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0006848461322131393</v>
+        <v>0.0005418858671185117</v>
       </c>
       <c r="F50" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.1718816344825399</v>
+        <v>-0.9850614369774808</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3903807441255702</v>
+        <v>0.3506805820069263</v>
       </c>
       <c r="K50" t="n">
-        <v>1.183666030372318</v>
+        <v>-0.07850279546057615</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.7898244587506029</v>
+        <v>-1.762553331664583</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3605,16 +3605,16 @@
         <v>5</v>
       </c>
       <c r="P50" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q50" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R50" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S50" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51">
@@ -3622,37 +3622,37 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>65.41934893497719</v>
+        <v>306.3713868381507</v>
       </c>
       <c r="C51" t="n">
-        <v>263.3325477319123</v>
+        <v>558.6742730183618</v>
       </c>
       <c r="D51" t="n">
-        <v>6.054436823748796e-07</v>
+        <v>4.184383927151426e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0004579685790840591</v>
+        <v>0.0004773706153582731</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.394092463463718</v>
+        <v>-1.298183842534536</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5133861443449432</v>
+        <v>0.2952912771153974</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8620421797338188</v>
+        <v>-0.6132852708162725</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.229429400146135</v>
+        <v>-1.847328614155946</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3668,54 +3668,54 @@
         <v>5</v>
       </c>
       <c r="P51" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q51" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R51" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S51" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>29.00201993886935</v>
+        <v>177.4757783685656</v>
       </c>
       <c r="C52" t="n">
-        <v>238.7210962687129</v>
+        <v>719.2961390485025</v>
       </c>
       <c r="D52" t="n">
-        <v>6.245057105929798e-06</v>
+        <v>4.05441292276375e-07</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001176282409793403</v>
+        <v>0.0004229132244026868</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.06457017129410215</v>
+        <v>-0.7520160100362949</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4297813100043248</v>
+        <v>0.5911563166577931</v>
       </c>
       <c r="K52" t="n">
-        <v>1.335914037548649</v>
+        <v>1.492177323131729</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.6606758017832611</v>
+        <v>-1.477385633945834</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3731,16 +3731,16 @@
         <v>5</v>
       </c>
       <c r="P52" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q52" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R52" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S52" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53">
@@ -3748,37 +3748,37 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>70.4573685824607</v>
+        <v>293.1708213790236</v>
       </c>
       <c r="C53" t="n">
-        <v>288.7279143205045</v>
+        <v>551.9547942167887</v>
       </c>
       <c r="D53" t="n">
-        <v>3.268362220135319e-07</v>
+        <v>5.021022981258563e-08</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0003900366321369453</v>
+        <v>0.001095708809189761</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.4244419794124138</v>
+        <v>-1.242249243131456</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4391236513319506</v>
+        <v>0.3914665237610969</v>
       </c>
       <c r="K53" t="n">
-        <v>0.7098449530739089</v>
+        <v>-0.1661879976148994</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.126441963448005</v>
+        <v>-2.25010415858234</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3794,16 +3794,16 @@
         <v>5</v>
       </c>
       <c r="P53" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q53" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R53" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S53" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54">
@@ -3811,37 +3811,37 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>88.7543766611581</v>
+        <v>244.9805512421922</v>
       </c>
       <c r="C54" t="n">
-        <v>192.5374938960056</v>
+        <v>455.6380353946159</v>
       </c>
       <c r="D54" t="n">
-        <v>3.987088974614566e-07</v>
+        <v>5.00642636625447e-07</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0001571180473878508</v>
+        <v>0.0002244072402428214</v>
       </c>
       <c r="F54" t="n">
-        <v>3.2</v>
+        <v>10.6</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.5346649196455309</v>
+        <v>-1.038053183229628</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2257001464190484</v>
+        <v>0.2939755406690701</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.004834918149802281</v>
+        <v>-0.3299264768640389</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.8981272750628275</v>
+        <v>-1.616233364184188</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3857,16 +3857,16 @@
         <v>5</v>
       </c>
       <c r="P54" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q54" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R54" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S54" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55">
@@ -3874,37 +3874,37 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>76.24804143259632</v>
+        <v>202.6734031913086</v>
       </c>
       <c r="C55" t="n">
-        <v>188.5204432565176</v>
+        <v>371.2513600790199</v>
       </c>
       <c r="D55" t="n">
-        <v>4.277120658700187e-07</v>
+        <v>3.401412158861143e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0002972650375910299</v>
+        <v>0.0003597854686799031</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.4593255507987731</v>
+        <v>-0.858785606742833</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2146819818326567</v>
+        <v>0.2285311658322998</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3435647395134738</v>
+        <v>-0.2216736990668371</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.019161012451502</v>
+        <v>-1.265732231405837</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>5</v>
       </c>
       <c r="P55" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q55" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R55" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S55" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.06024096385542168</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B56" t="n">
-        <v>114.5275581142842</v>
+        <v>123.07455749262</v>
       </c>
       <c r="C56" t="n">
-        <v>415.124607244798</v>
+        <v>742.0697942595034</v>
       </c>
       <c r="D56" t="n">
-        <v>3.895809556913187e-07</v>
+        <v>7.718051899723037e-07</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0003099947468460434</v>
+        <v>0.0004097476941564694</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1447903175551409</v>
+        <v>-0.5099265318657127</v>
       </c>
       <c r="J56" t="n">
-        <v>1.180817252939452</v>
+        <v>0.9312523555393267</v>
       </c>
       <c r="K56" t="n">
-        <v>2.61558796032614</v>
+        <v>1.814758975362918</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.189784971157483</v>
+        <v>-1.570696961913857</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3983,16 +3983,16 @@
         <v>5</v>
       </c>
       <c r="P56" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q56" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R56" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S56" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57">
@@ -4000,37 +4000,37 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>101.6385880802377</v>
+        <v>256.9775279158877</v>
       </c>
       <c r="C57" t="n">
-        <v>262.9409846424941</v>
+        <v>484.5040474550179</v>
       </c>
       <c r="D57" t="n">
-        <v>3.947026729081208e-06</v>
+        <v>1.402734158093209e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0009400386537812319</v>
+        <v>0.001247389864808339</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.6122806510857695</v>
+        <v>-1.088887830152067</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2852567481107817</v>
+        <v>0.3073324859109006</v>
       </c>
       <c r="K57" t="n">
-        <v>0.06412357216394392</v>
+        <v>-0.4775335803119929</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.184531694054241</v>
+        <v>-1.689953663655844</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         <v>5</v>
       </c>
       <c r="P57" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q57" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R57" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S57" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58">
@@ -4063,37 +4063,37 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>174.9361190116546</v>
+        <v>168.523837312671</v>
       </c>
       <c r="C58" t="n">
-        <v>346.4830251948538</v>
+        <v>564.5947953486029</v>
       </c>
       <c r="D58" t="n">
-        <v>1.344739880382397e-06</v>
+        <v>3.247764283438706e-07</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000638215449314371</v>
+        <v>0.0007152680611203717</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.053832042238883</v>
+        <v>-0.7140840564096228</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4302112905747041</v>
+        <v>0.7042916440121969</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.07234273139640587</v>
+        <v>0.8110409530082799</v>
       </c>
       <c r="L58" t="n">
-        <v>-2.019285534088266</v>
+        <v>-2.054286687102094</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4109,16 +4109,16 @@
         <v>5</v>
       </c>
       <c r="P58" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q58" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R58" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S58" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59">
@@ -4126,37 +4126,37 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>126.7543457719057</v>
+        <v>295.7621784871507</v>
       </c>
       <c r="C59" t="n">
-        <v>315.1842758754489</v>
+        <v>594.6851712344646</v>
       </c>
       <c r="D59" t="n">
-        <v>8.516520059248526e-07</v>
+        <v>1.090066163448649e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001031481175435408</v>
+        <v>0.0006730378965539492</v>
       </c>
       <c r="F59" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.7635803962162994</v>
+        <v>-1.253229569860808</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3333776953685418</v>
+        <v>0.4173494395652162</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2209397399620649</v>
+        <v>-0.00410151580621443</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.460321512587167</v>
+        <v>-1.990014272763985</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4172,16 +4172,16 @@
         <v>5</v>
       </c>
       <c r="P59" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q59" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R59" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S59" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60">
@@ -4189,37 +4189,37 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>325.970691730967</v>
+        <v>165.2571526049443</v>
       </c>
       <c r="C60" t="n">
-        <v>690.2219351414519</v>
+        <v>493.204150532127</v>
       </c>
       <c r="D60" t="n">
-        <v>1.118565511806992e-06</v>
+        <v>3.22953546839984e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0005742622741148153</v>
+        <v>0.0003397196326047922</v>
       </c>
       <c r="F60" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.963678865849199</v>
+        <v>-0.7002421720548484</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7168668873277575</v>
+        <v>0.3552314341746661</v>
       </c>
       <c r="K60" t="n">
-        <v>3.382954861071762</v>
+        <v>0.5551434325832234</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5988726810763236</v>
+        <v>-1.185048315228322</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4235,16 +4235,16 @@
         <v>5</v>
       </c>
       <c r="P60" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q60" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R60" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S60" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61">
@@ -4252,37 +4252,37 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>177.6032176805808</v>
+        <v>258.0641794292352</v>
       </c>
       <c r="C61" t="n">
-        <v>598.1220932310907</v>
+        <v>565.8256338796024</v>
       </c>
       <c r="D61" t="n">
-        <v>1.473980448471532e-06</v>
+        <v>2.164797901447218e-07</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0006920150385783807</v>
+        <v>0.0004781294252874334</v>
       </c>
       <c r="F61" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.069898901690246</v>
+        <v>-1.093492285717098</v>
       </c>
       <c r="J61" t="n">
-        <v>1.074744697701195</v>
+        <v>0.5504365114600817</v>
       </c>
       <c r="K61" t="n">
-        <v>3.230319050465886</v>
+        <v>0.2050638470491304</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.5956195102754086</v>
+        <v>-2.202488990107414</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4298,16 +4298,16 @@
         <v>5</v>
       </c>
       <c r="P61" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="Q61" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="R61" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="S61" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
